--- a/biology/Botanique/Maison_du_jardinier/Maison_du_jardinier.xlsx
+++ b/biology/Botanique/Maison_du_jardinier/Maison_du_jardinier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une maison du jardinier (ou maison de jardinier[1]) est un bâtiment attenant à celui de l'habitation principale. Située dans le jardin ou le parc d'un domaine, elle loge le jardinier (et/ou fleuriste) et abrite ses outils ainsi que son atelier. Ce logement est à proximité de la pépinière, du potager ou bien des plantations dont le jardinier a la charge et l'entretien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une maison du jardinier (ou maison de jardinier) est un bâtiment attenant à celui de l'habitation principale. Située dans le jardin ou le parc d'un domaine, elle loge le jardinier (et/ou fleuriste) et abrite ses outils ainsi que son atelier. Ce logement est à proximité de la pépinière, du potager ou bien des plantations dont le jardinier a la charge et l'entretien.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Le pavillon de Jussieu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pavillon de Jussieu (auparavant nommé plus justement la « maison Richard ») situé dans le parc de Versailles[2], a été construit en 1750 afin de loger le jardinier-fleuriste du domaine de Trianon.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pavillon de Jussieu (auparavant nommé plus justement la « maison Richard ») situé dans le parc de Versailles, a été construit en 1750 afin de loger le jardinier-fleuriste du domaine de Trianon.
 </t>
         </is>
       </c>
